--- a/BalanceSheet/AKAM_bal.xlsx
+++ b/BalanceSheet/AKAM_bal.xlsx
@@ -1874,19 +1874,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-10607000.0</v>
+        <v>119000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>97220000.0</v>
+        <v>115000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-19944000.0</v>
+        <v>154000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-27458000.0</v>
+        <v>114000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>38210000.0</v>
+        <v>139000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>108187000.0</v>
@@ -2966,19 +2966,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-11273000.0</v>
+        <v>-69000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-33942000.0</v>
+        <v>-66000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>14282000.0</v>
+        <v>-32000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-2888000.0</v>
+        <v>-51000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-23648000.0</v>
+        <v>-16000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>21797000.0</v>
